--- a/controller/assets/test.xlsx
+++ b/controller/assets/test.xlsx
@@ -1,34 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanh.td\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24975" windowHeight="10155" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Level 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Level 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Level 3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
-  <si>
-    <t xml:space="preserve">username </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+  <si>
+    <t>username</t>
   </si>
   <si>
     <t>name</t>
@@ -61,40 +49,40 @@
     <t>test1@gmail.com</t>
   </si>
   <si>
+    <t>Test 1</t>
+  </si>
+  <si>
+    <t>ODC</t>
+  </si>
+  <si>
     <t>test2@gmail.com</t>
   </si>
   <si>
+    <t>Test 2</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
     <t>test3@gmail.com</t>
   </si>
   <si>
-    <t>Test 1</t>
-  </si>
-  <si>
-    <t>Test 2</t>
-  </si>
-  <si>
     <t>Test 3</t>
   </si>
   <si>
-    <t>ODC</t>
-  </si>
-  <si>
-    <t>SS</t>
-  </si>
-  <si>
     <t>test4@gmail.com</t>
   </si>
   <si>
+    <t>Test 4</t>
+  </si>
+  <si>
     <t>test5@gmail.com</t>
   </si>
   <si>
+    <t>Test 5</t>
+  </si>
+  <si>
     <t>test6@gmail.com</t>
-  </si>
-  <si>
-    <t>Test 4</t>
-  </si>
-  <si>
-    <t>Test 5</t>
   </si>
   <si>
     <t>Test 6</t>
@@ -103,40 +91,369 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -144,28 +461,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -214,7 +814,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -249,7 +849,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -423,35 +1023,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="21.1428571428571" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7142857142857" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1428571428571" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5714285714286" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1428571428571" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.71428571428571" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,7 +1066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -486,231 +1081,152 @@
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId1" display="thanhtdfu@gmail.com"/>
+    <hyperlink ref="C2" r:id="rId1" display="thanhtdfu@gmail.com"/>
+    <hyperlink ref="A3" r:id="rId2" display="test1@gmail.com"/>
+    <hyperlink ref="A4" r:id="rId3" display="test2@gmail.com"/>
+    <hyperlink ref="A5" r:id="rId4" display="test3@gmail.com"/>
+    <hyperlink ref="C3" r:id="rId2" display="test1@gmail.com"/>
+    <hyperlink ref="C4" r:id="rId3" display="test2@gmail.com"/>
+    <hyperlink ref="C5" r:id="rId4" display="test3@gmail.com"/>
+    <hyperlink ref="F3" r:id="rId1" display="thanhtdfu@gmail.com"/>
+    <hyperlink ref="F4" r:id="rId1" display="thanhtdfu@gmail.com"/>
+    <hyperlink ref="F5" r:id="rId1" display="thanhtdfu@gmail.com"/>
+    <hyperlink ref="A6" r:id="rId5" display="test4@gmail.com"/>
+    <hyperlink ref="A7" r:id="rId6" display="test5@gmail.com"/>
+    <hyperlink ref="A8" r:id="rId7" display="test6@gmail.com"/>
+    <hyperlink ref="C6" r:id="rId5" display="test4@gmail.com"/>
+    <hyperlink ref="C7" r:id="rId6" display="test5@gmail.com"/>
+    <hyperlink ref="C8" r:id="rId7" display="test6@gmail.com"/>
+    <hyperlink ref="F6" r:id="rId2" display="test1@gmail.com"/>
+    <hyperlink ref="F7" r:id="rId3" display="test2@gmail.com"/>
+    <hyperlink ref="F8" r:id="rId3" display="test2@gmail.com"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="C2" r:id="rId4"/>
-    <hyperlink ref="C3" r:id="rId5"/>
-    <hyperlink ref="C4" r:id="rId6"/>
-    <hyperlink ref="F2" r:id="rId7"/>
-    <hyperlink ref="F3" r:id="rId8"/>
-    <hyperlink ref="F4" r:id="rId9"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="C2" r:id="rId4"/>
-    <hyperlink ref="C3" r:id="rId5"/>
-    <hyperlink ref="C4" r:id="rId6"/>
-    <hyperlink ref="F2" r:id="rId7"/>
-    <hyperlink ref="F3" r:id="rId8"/>
-    <hyperlink ref="F4" r:id="rId9"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/controller/assets/test.xlsx
+++ b/controller/assets/test.xlsx
@@ -7,14 +7,15 @@
     <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
-    <sheet name="Level 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Accounts" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>username</t>
   </si>
@@ -34,58 +35,46 @@
     <t>manager</t>
   </si>
   <si>
-    <t>thanhtdfu@gmail.com</t>
-  </si>
-  <si>
-    <t>Trần Đức Thanh</t>
-  </si>
-  <si>
-    <t>Samco Building</t>
+    <t>thanhtd11111@gmail.com</t>
+  </si>
+  <si>
+    <t>Thanh 1</t>
+  </si>
+  <si>
+    <t>Samco</t>
   </si>
   <si>
     <t>Headquarter</t>
   </si>
   <si>
-    <t>test1@gmail.com</t>
-  </si>
-  <si>
-    <t>Test 1</t>
+    <t>thanhtd22222@gmail.com</t>
+  </si>
+  <si>
+    <t>Thanh 2</t>
   </si>
   <si>
     <t>ODC</t>
   </si>
   <si>
-    <t>test2@gmail.com</t>
-  </si>
-  <si>
-    <t>Test 2</t>
+    <t>thanhtd33333@gmail.com</t>
+  </si>
+  <si>
+    <t>Thanh 3</t>
   </si>
   <si>
     <t>SS</t>
   </si>
   <si>
-    <t>test3@gmail.com</t>
-  </si>
-  <si>
-    <t>Test 3</t>
-  </si>
-  <si>
-    <t>test4@gmail.com</t>
-  </si>
-  <si>
-    <t>Test 4</t>
-  </si>
-  <si>
-    <t>test5@gmail.com</t>
-  </si>
-  <si>
-    <t>Test 5</t>
-  </si>
-  <si>
-    <t>test6@gmail.com</t>
-  </si>
-  <si>
-    <t>Test 6</t>
+    <t>thanhtd44444@gmail.com</t>
+  </si>
+  <si>
+    <t>Thanh 4</t>
+  </si>
+  <si>
+    <t>thanhtd55555@gmail.com</t>
+  </si>
+  <si>
+    <t>Thanh 5</t>
   </si>
 </sst>
 </file>
@@ -94,9 +83,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -109,17 +98,24 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -132,13 +128,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,6 +141,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -159,6 +179,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -166,40 +187,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,52 +247,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -268,187 +257,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,8 +454,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,8 +463,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,17 +495,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,17 +529,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,7 +551,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,136 +569,136 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1029,13 +1018,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="21.1428571428571" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.7142857142857" style="1" customWidth="1"/>
@@ -1067,13 +1056,13 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1084,149 +1073,177 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>6</v>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="thanhtdfu@gmail.com"/>
-    <hyperlink ref="C2" r:id="rId1" display="thanhtdfu@gmail.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="test1@gmail.com"/>
-    <hyperlink ref="A4" r:id="rId3" display="test2@gmail.com"/>
-    <hyperlink ref="A5" r:id="rId4" display="test3@gmail.com"/>
-    <hyperlink ref="C3" r:id="rId2" display="test1@gmail.com"/>
-    <hyperlink ref="C4" r:id="rId3" display="test2@gmail.com"/>
-    <hyperlink ref="C5" r:id="rId4" display="test3@gmail.com"/>
-    <hyperlink ref="F3" r:id="rId1" display="thanhtdfu@gmail.com"/>
-    <hyperlink ref="F4" r:id="rId1" display="thanhtdfu@gmail.com"/>
-    <hyperlink ref="F5" r:id="rId1" display="thanhtdfu@gmail.com"/>
-    <hyperlink ref="A6" r:id="rId5" display="test4@gmail.com"/>
-    <hyperlink ref="A7" r:id="rId6" display="test5@gmail.com"/>
-    <hyperlink ref="A8" r:id="rId7" display="test6@gmail.com"/>
-    <hyperlink ref="C6" r:id="rId5" display="test4@gmail.com"/>
-    <hyperlink ref="C7" r:id="rId6" display="test5@gmail.com"/>
-    <hyperlink ref="C8" r:id="rId7" display="test6@gmail.com"/>
-    <hyperlink ref="F6" r:id="rId2" display="test1@gmail.com"/>
-    <hyperlink ref="F7" r:id="rId3" display="test2@gmail.com"/>
-    <hyperlink ref="F8" r:id="rId3" display="test2@gmail.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="thanhtd11111@gmail.com"/>
+    <hyperlink ref="C2" r:id="rId1" display="thanhtd11111@gmail.com"/>
+    <hyperlink ref="A3" r:id="rId2" display="thanhtd22222@gmail.com" tooltip="mailto:thanhtd22222@gmail.com"/>
+    <hyperlink ref="A4" r:id="rId3" display="thanhtd33333@gmail.com" tooltip="mailto:thanhtd33333@gmail.com"/>
+    <hyperlink ref="A5" r:id="rId4" display="thanhtd44444@gmail.com" tooltip="mailto:thanhtd44444@gmail.com"/>
+    <hyperlink ref="A6" r:id="rId5" display="thanhtd55555@gmail.com" tooltip="mailto:thanhtd55555@gmail.com"/>
+    <hyperlink ref="C3" r:id="rId2" display="thanhtd22222@gmail.com" tooltip="mailto:thanhtd22222@gmail.com"/>
+    <hyperlink ref="C4" r:id="rId3" display="thanhtd33333@gmail.com" tooltip="mailto:thanhtd33333@gmail.com"/>
+    <hyperlink ref="C5" r:id="rId4" display="thanhtd44444@gmail.com" tooltip="mailto:thanhtd44444@gmail.com"/>
+    <hyperlink ref="C6" r:id="rId5" display="thanhtd55555@gmail.com" tooltip="mailto:thanhtd55555@gmail.com"/>
+    <hyperlink ref="F3" r:id="rId1" display="thanhtd11111@gmail.com"/>
+    <hyperlink ref="F4" r:id="rId1" display="thanhtd11111@gmail.com"/>
+    <hyperlink ref="F6" r:id="rId2" display="thanhtd22222@gmail.com" tooltip="mailto:thanhtd22222@gmail.com"/>
+    <hyperlink ref="F5" r:id="rId3" display="thanhtd33333@gmail.com" tooltip="mailto:thanhtd33333@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A2:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="21.1428571428571" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7142857142857" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1428571428571" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5714285714286" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1428571428571" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.71428571428571" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" s="1" customFormat="1" spans="1:6">
+      <c r="A2" s="2"/>
+      <c r="B2"/>
+      <c r="C2" s="2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3"/>
+      <c r="C3" s="2"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:6">
+      <c r="A4" s="2"/>
+      <c r="B4"/>
+      <c r="C4" s="2"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:6">
+      <c r="A5" s="2"/>
+      <c r="B5"/>
+      <c r="C5" s="2"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:6">
+      <c r="A6" s="2"/>
+      <c r="B6"/>
+      <c r="C6" s="2"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:6">
+      <c r="A7" s="2"/>
+      <c r="B7"/>
+      <c r="C7" s="2"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>